--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/184.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/184.xlsx
@@ -479,13 +479,13 @@
         <v>-4.744646227789771</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.760683891292</v>
+        <v>-14.65881268288053</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01635500008840794</v>
+        <v>-0.1016120761937281</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.25789063519955</v>
+        <v>-11.1220449009138</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.521643943697525</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.90864000570634</v>
+        <v>-14.81678440896879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0598029255419126</v>
+        <v>-0.03705393088117685</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.95854822302633</v>
+        <v>-10.83181473151842</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.21141667132856</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.27561725435992</v>
+        <v>-15.17506836853547</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09253368264622777</v>
+        <v>0.003440561808281876</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.60048683260796</v>
+        <v>-10.46257251447322</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.856893388955278</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.79149326323246</v>
+        <v>-15.6810596887625</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2283008631149271</v>
+        <v>0.1261154394352551</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.41775756184599</v>
+        <v>-10.27389933822111</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.468468569643887</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.28111920490733</v>
+        <v>-16.16296117176075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2166487135857909</v>
+        <v>0.1193205342603993</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.2629148961369</v>
+        <v>-10.11300802859913</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.073723413294066</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.86342555839878</v>
+        <v>-16.72676810133684</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3699857644680866</v>
+        <v>0.2431082576289193</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.11448745882025</v>
+        <v>-9.965850544658133</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.683804242424881</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.45923007612005</v>
+        <v>-17.30680948643667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5116575735184044</v>
+        <v>0.3978854618238049</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.908689550451157</v>
+        <v>-9.760641789916919</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.315692892659254</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.19881426364915</v>
+        <v>-18.02616606607531</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7986015749005146</v>
+        <v>0.6699173302691891</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.947036905474572</v>
+        <v>-9.796436145886199</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.971850619050713</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.68884606671212</v>
+        <v>-18.50446716579209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8306646245599018</v>
+        <v>0.7179398970926403</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.597014189001026</v>
+        <v>-9.45261918095963</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.65372443543805</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.30186696267026</v>
+        <v>-19.10309962092717</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9561281626921627</v>
+        <v>0.8434819890419516</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.553312082115346</v>
+        <v>-9.403182645429272</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.36094904619409</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.85179605123412</v>
+        <v>-19.64814528053107</v>
       </c>
       <c r="F12" t="n">
-        <v>1.123617992946364</v>
+        <v>0.9962167939935279</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.06305770990407</v>
+        <v>-8.910938243186056</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.087655013328121</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.67065413246988</v>
+        <v>-20.45706630390996</v>
       </c>
       <c r="F13" t="n">
-        <v>1.31412409159632</v>
+        <v>1.177388080717333</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.582962964697975</v>
+        <v>-8.411820381950932</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.8338907363330778</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.50339005471787</v>
+        <v>-21.28849299587377</v>
       </c>
       <c r="F14" t="n">
-        <v>1.644469076898752</v>
+        <v>1.492153225638111</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.141097743789722</v>
+        <v>-7.946624677378722</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.5915074826530972</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.33018207147571</v>
+        <v>-22.10991716846651</v>
       </c>
       <c r="F15" t="n">
-        <v>1.761278602852632</v>
+        <v>1.60273081543933</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.713149640802221</v>
+        <v>-7.498226397352446</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.3539020708198087</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.1838787705733</v>
+        <v>-22.96959704996276</v>
       </c>
       <c r="F16" t="n">
-        <v>2.04349628290888</v>
+        <v>1.878611820920181</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.125056489454728</v>
+        <v>-6.925595255661031</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.1143127289485984</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.79386225227216</v>
+        <v>-23.58467343746706</v>
       </c>
       <c r="F17" t="n">
-        <v>2.235560365597001</v>
+        <v>2.068135996857008</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.042745181488796</v>
+        <v>-6.836515227125927</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1341008020087925</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.60990548839694</v>
+        <v>-24.39464184507328</v>
       </c>
       <c r="F18" t="n">
-        <v>2.662631284294105</v>
+        <v>2.477191906843897</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.641335176361475</v>
+        <v>-6.435681283323642</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.389787815300807</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.46622064806288</v>
+        <v>-25.24108540839656</v>
       </c>
       <c r="F19" t="n">
-        <v>2.929452416208483</v>
+        <v>2.741316024372879</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.33235682929674</v>
+        <v>-6.136351963453259</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6482514230715067</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.2195517535758</v>
+        <v>-25.99411539094411</v>
       </c>
       <c r="F20" t="n">
-        <v>3.151000364896171</v>
+        <v>2.963309111357186</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.234216927195161</v>
+        <v>-6.01431860866553</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.893651680617161</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.80412307545886</v>
+        <v>-26.5777833439311</v>
       </c>
       <c r="F21" t="n">
-        <v>3.464246802687309</v>
+        <v>3.28380868492264</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.895060822080247</v>
+        <v>-5.689760421219141</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.106155019124962</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.39165325778416</v>
+        <v>-27.16341514234435</v>
       </c>
       <c r="F22" t="n">
-        <v>3.660788452947301</v>
+        <v>3.496322944649538</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.765512485461367</v>
+        <v>-5.532980094689471</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.26003825708556</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.83264129440202</v>
+        <v>-27.61468063669297</v>
       </c>
       <c r="F23" t="n">
-        <v>3.841802632037005</v>
+        <v>3.680007953518955</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.561311838038966</v>
+        <v>-5.337642936290918</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.331784619644699</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.0636942549528</v>
+        <v>-27.84307585976688</v>
       </c>
       <c r="F24" t="n">
-        <v>3.978774304367144</v>
+        <v>3.815199072662618</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.400865666713613</v>
+        <v>-5.173976058466501</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.302650348525514</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.32673171134592</v>
+        <v>-28.11320934430021</v>
       </c>
       <c r="F25" t="n">
-        <v>4.294979602600511</v>
+        <v>4.129807109949295</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.102884854035928</v>
+        <v>-4.883523319922808</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.160382887864306</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.2857135265428</v>
+        <v>-28.07373605123241</v>
       </c>
       <c r="F26" t="n">
-        <v>4.464943878091799</v>
+        <v>4.284191545058929</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.111761435362618</v>
+        <v>-4.884007735127952</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9053609609788572</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.17336847585795</v>
+        <v>-27.96859176711051</v>
       </c>
       <c r="F27" t="n">
-        <v>4.411213067229355</v>
+        <v>4.241615376217636</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.912653693745648</v>
+        <v>-4.709290953705117</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.5438383539735669</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.12611835490215</v>
+        <v>-27.91463838709975</v>
       </c>
       <c r="F28" t="n">
-        <v>4.381231693721803</v>
+        <v>4.227711350599723</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.818925897701731</v>
+        <v>-4.631417936402531</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.09664856098842432</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.90495008299688</v>
+        <v>-27.70665406415609</v>
       </c>
       <c r="F29" t="n">
-        <v>4.366961083624322</v>
+        <v>4.217761200440012</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.694182436225765</v>
+        <v>-4.515393948619154</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.4122899146252132</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.75589421514383</v>
+        <v>-27.56334571725056</v>
       </c>
       <c r="F30" t="n">
-        <v>4.261934630227995</v>
+        <v>4.126115080547929</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.647128699812602</v>
+        <v>-4.469466150250379</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.9511202262946308</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.30677585846125</v>
+        <v>-27.12196491154745</v>
       </c>
       <c r="F31" t="n">
-        <v>4.1123943471698</v>
+        <v>3.984115963926568</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.727567808472167</v>
+        <v>-4.568430867430986</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.487339177506105</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.92565892273861</v>
+        <v>-26.74929251115772</v>
       </c>
       <c r="F32" t="n">
-        <v>4.022266934407358</v>
+        <v>3.901241686938442</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.806606040727667</v>
+        <v>-4.649341298992853</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.991922535388994</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.50590660133003</v>
+        <v>-26.32967111277755</v>
       </c>
       <c r="F33" t="n">
-        <v>3.887625691983047</v>
+        <v>3.769035612842692</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.719987365126808</v>
+        <v>-4.603321854504187</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.437524981041685</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.01621519814095</v>
+        <v>-25.84575341514168</v>
       </c>
       <c r="F34" t="n">
-        <v>3.752801157318951</v>
+        <v>3.643532797801906</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.529690743322319</v>
+        <v>-4.431825779580416</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.808325052731462</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.60371601250668</v>
+        <v>-25.44307345663871</v>
       </c>
       <c r="F35" t="n">
-        <v>3.515097306924573</v>
+        <v>3.403027194599398</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.526037990829478</v>
+        <v>-4.445651251381279</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.092367775657668</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.91529654448304</v>
+        <v>-24.75359351208489</v>
       </c>
       <c r="F36" t="n">
-        <v>3.287736375775158</v>
+        <v>3.193943118217033</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.790607246655077</v>
+        <v>-4.719057811625045</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.289256143405157</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.4314835852699</v>
+        <v>-24.27897134946663</v>
       </c>
       <c r="F37" t="n">
-        <v>3.159850761617178</v>
+        <v>3.061449013458765</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.775852221352452</v>
+        <v>-4.7200790112467</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.40433516880041</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.01215021755225</v>
+        <v>-23.86740171733413</v>
       </c>
       <c r="F38" t="n">
-        <v>3.08538174305344</v>
+        <v>2.989860301520207</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.923703597344065</v>
+        <v>-4.860873636006621</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.447666148633497</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.51015204969195</v>
+        <v>-23.36975019401728</v>
       </c>
       <c r="F39" t="n">
-        <v>3.058359229988117</v>
+        <v>2.960638281577474</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.788460108989034</v>
+        <v>-4.73737394330062</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.436734864539262</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.1246099156088</v>
+        <v>-22.98872490441453</v>
       </c>
       <c r="F40" t="n">
-        <v>3.158908115812574</v>
+        <v>3.041077390237039</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.767708808984898</v>
+        <v>-4.729400730870008</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.386676999410209</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.59268274345231</v>
+        <v>-22.45962566967185</v>
       </c>
       <c r="F41" t="n">
-        <v>3.169041558212069</v>
+        <v>3.063910366393009</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.695400020390045</v>
+        <v>-4.657694188205875</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.316654546517217</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.91065231921544</v>
+        <v>-21.78861896442771</v>
       </c>
       <c r="F42" t="n">
-        <v>3.261132816400771</v>
+        <v>3.161709868620703</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.724478025001519</v>
+        <v>-4.683708593952384</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.243431998728101</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.24646670375183</v>
+        <v>-21.12658048663015</v>
       </c>
       <c r="F43" t="n">
-        <v>3.380115664626377</v>
+        <v>3.279304932745087</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.772840991698855</v>
+        <v>-4.722749841026411</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.178429005324265</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.95368353530231</v>
+        <v>-20.84051366953843</v>
       </c>
       <c r="F44" t="n">
-        <v>3.282682746878252</v>
+        <v>3.190041611970198</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.821073035367775</v>
+        <v>-4.777056713213891</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.134873686029692</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.46265671722337</v>
+        <v>-20.35854672502597</v>
       </c>
       <c r="F45" t="n">
-        <v>3.414469867283067</v>
+        <v>3.312454643540337</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.765522394410331</v>
+        <v>-4.728209331311411</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.114630300934141</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.1372868070008</v>
+        <v>-20.0285028626889</v>
       </c>
       <c r="F46" t="n">
-        <v>3.441309088108605</v>
+        <v>3.341781401905803</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.728340254339829</v>
+        <v>-4.715117028469686</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.122183515550673</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.58780285673356</v>
+        <v>-19.49068415425363</v>
       </c>
       <c r="F47" t="n">
-        <v>3.446650747668029</v>
+        <v>3.351757736671199</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.994454401900753</v>
+        <v>-4.98904728082712</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.155628210553631</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.11094191032937</v>
+        <v>-19.01739740652523</v>
       </c>
       <c r="F48" t="n">
-        <v>3.372653052006593</v>
+        <v>3.284594223093144</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.108684744194813</v>
+        <v>-5.105372391575856</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.208969560158689</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.73229941984381</v>
+        <v>-18.6230441526296</v>
       </c>
       <c r="F49" t="n">
-        <v>3.390720429928175</v>
+        <v>3.304520708018251</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.400590728353937</v>
+        <v>-5.390535839771491</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.281412533111978</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.21504871917289</v>
+        <v>-18.11093872697549</v>
       </c>
       <c r="F50" t="n">
-        <v>3.540915328128457</v>
+        <v>3.437878904764073</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.299007550604984</v>
+        <v>-5.321984542092213</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.363517885527204</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.55276148762134</v>
+        <v>-17.44387280488671</v>
       </c>
       <c r="F51" t="n">
-        <v>3.561993935703636</v>
+        <v>3.451494899719468</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.511469441120515</v>
+        <v>-5.535205786172565</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.455495200610136</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.15889264893085</v>
+        <v>-17.05309374966686</v>
       </c>
       <c r="F52" t="n">
-        <v>3.385614431819902</v>
+        <v>3.284960807572712</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.817907881433955</v>
+        <v>-5.813796898341653</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.551587335146487</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.77227694601468</v>
+        <v>-16.6601413721753</v>
       </c>
       <c r="F53" t="n">
-        <v>3.416774112583211</v>
+        <v>3.322561901334149</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845166055950429</v>
+        <v>-5.84646219393176</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.651707794182029</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.58344666212847</v>
+        <v>-16.45643823226088</v>
       </c>
       <c r="F54" t="n">
-        <v>3.149507842372214</v>
+        <v>3.059458983426822</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.016177715669055</v>
+        <v>-6.028366649614702</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.758950321334507</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.29804755248168</v>
+        <v>-16.1620970797732</v>
       </c>
       <c r="F55" t="n">
-        <v>3.003607219504019</v>
+        <v>2.910887530778915</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.151408111721244</v>
+        <v>-6.177108302199552</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.871813203798268</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.97674934844288</v>
+        <v>-15.82614858885451</v>
       </c>
       <c r="F56" t="n">
-        <v>2.950033516275676</v>
+        <v>2.857078166099421</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.473321653993604</v>
+        <v>-6.477563560114324</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.996927426150149</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.42942562814452</v>
+        <v>-15.28005554502327</v>
       </c>
       <c r="F57" t="n">
-        <v>2.994940115022796</v>
+        <v>2.886719139733089</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.729826051268701</v>
+        <v>-6.735874695181579</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.13004218372346</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.23239956267939</v>
+        <v>-15.07394342138598</v>
       </c>
       <c r="F58" t="n">
-        <v>2.838827495938055</v>
+        <v>2.726809752824246</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.707673874860501</v>
+        <v>-6.71009595088622</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.274711019508493</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.89120105832116</v>
+        <v>-14.72680101153761</v>
       </c>
       <c r="F59" t="n">
-        <v>2.972683200191862</v>
+        <v>2.846342477769205</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.814860558225712</v>
+        <v>-6.822414816965388</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.428124471696004</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.84163359976239</v>
+        <v>-14.66638003392304</v>
       </c>
       <c r="F60" t="n">
-        <v>2.791564282679424</v>
+        <v>2.665328298679501</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823894247186503</v>
+        <v>-6.823462201192726</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.584279189115417</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.49577423559251</v>
+        <v>-14.32351880710392</v>
       </c>
       <c r="F61" t="n">
-        <v>2.678394416915543</v>
+        <v>2.550665910391664</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.239470123988572</v>
+        <v>-7.224309237297853</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.741995062590746</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.29931113914957</v>
+        <v>-14.10902760964792</v>
       </c>
       <c r="F62" t="n">
-        <v>2.635687325045833</v>
+        <v>2.501726882369292</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.175121455521488</v>
+        <v>-7.178185054386452</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.889690529508444</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.98125982621552</v>
+        <v>-13.78937903576718</v>
       </c>
       <c r="F63" t="n">
-        <v>2.562815567428786</v>
+        <v>2.429614478317065</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.384912516257307</v>
+        <v>-7.3725795669804</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.024247379656175</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.7999576164633</v>
+        <v>-13.5973280453819</v>
       </c>
       <c r="F64" t="n">
-        <v>2.477296645266631</v>
+        <v>2.338884819623903</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.383550916761767</v>
+        <v>-7.403176278721515</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.134976671706547</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.61272459352377</v>
+        <v>-13.40582693171597</v>
       </c>
       <c r="F65" t="n">
-        <v>2.2168907417447</v>
+        <v>2.110162288978949</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.743052460492724</v>
+        <v>-7.740866045918155</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.214184472538749</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.39942479562637</v>
+        <v>-13.1886125352689</v>
       </c>
       <c r="F66" t="n">
-        <v>2.150669873971249</v>
+        <v>2.043443913697513</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.778689708827902</v>
+        <v>-7.791232134950275</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.257536911009264</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.23087448884199</v>
+        <v>-13.01796746002984</v>
       </c>
       <c r="F67" t="n">
-        <v>2.450221762989941</v>
+        <v>2.300053049395343</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.869118244555704</v>
+        <v>-7.859992909475021</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.258822852793891</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.18547038258688</v>
+        <v>-12.96481271049243</v>
       </c>
       <c r="F68" t="n">
-        <v>2.143154892140098</v>
+        <v>2.022077275459816</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.756877932293586</v>
+        <v>-7.769315619993226</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.219317673639485</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.04611591113955</v>
+        <v>-12.82380860888704</v>
       </c>
       <c r="F69" t="n">
-        <v>2.22060895575175</v>
+        <v>2.066931504995569</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.829160536282756</v>
+        <v>-7.841663685496604</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.137360440579747</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.03187148564775</v>
+        <v>-12.79473060427557</v>
       </c>
       <c r="F70" t="n">
-        <v>2.213931881302469</v>
+        <v>2.069523780958231</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.734568648251285</v>
+        <v>-7.753303733617795</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.018297332491581</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.72176720053863</v>
+        <v>-12.49195800875781</v>
       </c>
       <c r="F71" t="n">
-        <v>2.171224789432759</v>
+        <v>2.023595982589456</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.427279208253132</v>
+        <v>-7.474071098609461</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.866329409120519</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.65258747232295</v>
+        <v>-12.42501706432807</v>
       </c>
       <c r="F72" t="n">
-        <v>2.175309587919378</v>
+        <v>2.035876562654995</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.498920289403057</v>
+        <v>-7.533889830293307</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.683221657458195</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.30545815477742</v>
+        <v>-12.13298015714052</v>
       </c>
       <c r="F73" t="n">
-        <v>2.151717258198587</v>
+        <v>2.011760540820536</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.216532409409868</v>
+        <v>-7.280030078192239</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.477584020290828</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.50799607973893</v>
+        <v>-12.33431359024059</v>
       </c>
       <c r="F74" t="n">
-        <v>2.173031527224917</v>
+        <v>2.037500008207369</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.172673194890085</v>
+        <v>-7.224099760452385</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.250828336987658</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.64124953806201</v>
+        <v>-12.46676841809033</v>
       </c>
       <c r="F75" t="n">
-        <v>2.105030106264992</v>
+        <v>1.969498587247444</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.106976019230304</v>
+        <v>-7.147313404285662</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.007802645965476</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.8912863377333</v>
+        <v>-12.73183518142392</v>
       </c>
       <c r="F76" t="n">
-        <v>2.08044276152823</v>
+        <v>1.953552162386222</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.743795538400823</v>
+        <v>-6.812909805102294</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.753174983119948</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.46284391059169</v>
+        <v>-13.310449505514</v>
       </c>
       <c r="F77" t="n">
-        <v>2.075415317237008</v>
+        <v>1.944911242510682</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.699281708738955</v>
+        <v>-6.746636568117477</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.488951667231454</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.95096423743976</v>
+        <v>-13.80569204510797</v>
       </c>
       <c r="F78" t="n">
-        <v>2.128386774534631</v>
+        <v>1.99358842447622</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.731514958335284</v>
+        <v>-6.749804905405175</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.223382123293813</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.43874416441395</v>
+        <v>-14.29480738697202</v>
       </c>
       <c r="F79" t="n">
-        <v>2.171800850757795</v>
+        <v>2.039804253507513</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.643508498633201</v>
+        <v>-6.646820851252158</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.958785886513436</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.98608097701515</v>
+        <v>-14.84400330657674</v>
       </c>
       <c r="F80" t="n">
-        <v>2.050566126443412</v>
+        <v>1.937134414622697</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.282592986195339</v>
+        <v>-6.302074332823827</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.70673366469112</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.75682484530757</v>
+        <v>-15.61709069707782</v>
       </c>
       <c r="F81" t="n">
-        <v>2.153183596116861</v>
+        <v>2.032865333001398</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.230629636216528</v>
+        <v>-6.239192002275017</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.472946637862862</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.48317271466369</v>
+        <v>-16.34821725697118</v>
       </c>
       <c r="F82" t="n">
-        <v>2.11791293226125</v>
+        <v>2.009377741703342</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.128287104902755</v>
+        <v>-6.139821423706316</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.268457272780692</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.36060575881332</v>
+        <v>-17.22415777859686</v>
       </c>
       <c r="F83" t="n">
-        <v>2.101652292131827</v>
+        <v>1.988403872550896</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.829193446483523</v>
+        <v>-5.84744411664489</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.104854487673753</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.41253301523749</v>
+        <v>-18.27930574152009</v>
       </c>
       <c r="F84" t="n">
-        <v>2.106129859703697</v>
+        <v>2.006549804289528</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.726274853844715</v>
+        <v>-5.729914514034714</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.988712277250099</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.21035176580659</v>
+        <v>-19.07957275272059</v>
       </c>
       <c r="F85" t="n">
-        <v>2.136346894662401</v>
+        <v>2.030142134010319</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.596490855774684</v>
+        <v>-5.586776367066124</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.93525346495121</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.36543327632072</v>
+        <v>-20.22304139061411</v>
       </c>
       <c r="F86" t="n">
-        <v>2.123202222609308</v>
+        <v>2.018489984481183</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253747459681137</v>
+        <v>-5.251875260374771</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.948105387771948</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.43211555804751</v>
+        <v>-21.28846681126809</v>
       </c>
       <c r="F87" t="n">
-        <v>1.924251588626439</v>
+        <v>1.85766413637342</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.882986535506297</v>
+        <v>-4.898068868379966</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.04072263814957</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.77185090784134</v>
+        <v>-22.63207748270307</v>
       </c>
       <c r="F88" t="n">
-        <v>2.023124659687154</v>
+        <v>1.948524718094999</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.662093201960695</v>
+        <v>-4.661726617481126</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.216330521177483</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.14291613833542</v>
+        <v>-24.01958664556636</v>
       </c>
       <c r="F89" t="n">
-        <v>1.897778952280468</v>
+        <v>1.809222615859033</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.272322254059667</v>
+        <v>-4.280557312547113</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.479461014662943</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.6097777487224</v>
+        <v>-25.49019265456608</v>
       </c>
       <c r="F90" t="n">
-        <v>1.676047711352996</v>
+        <v>1.600007616448251</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.167793308171327</v>
+        <v>-4.160788926151003</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.83470854983998</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.25191910955442</v>
+        <v>-27.13437641464141</v>
       </c>
       <c r="F91" t="n">
-        <v>1.466570865885379</v>
+        <v>1.398176675840202</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.059323579127627</v>
+        <v>-4.064246284996115</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.274267290237753</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.83329909289799</v>
+        <v>-28.7362851288408</v>
       </c>
       <c r="F92" t="n">
-        <v>1.339418420686535</v>
+        <v>1.278290458718516</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.78674183396289</v>
+        <v>-3.796246845825983</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.799958493625332</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.67714047130964</v>
+        <v>-30.58859722719104</v>
       </c>
       <c r="F93" t="n">
-        <v>1.198780903560714</v>
+        <v>1.140677263549133</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.771580947272171</v>
+        <v>-3.790852817055192</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.392996652941293</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.74725611973484</v>
+        <v>-32.67094108647041</v>
       </c>
       <c r="F94" t="n">
-        <v>1.082468885114819</v>
+        <v>1.028659520435325</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.760557228279438</v>
+        <v>-3.788155802669796</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.044407596819129</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.77081553925486</v>
+        <v>-34.70623120933663</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6790688499555556</v>
+        <v>0.6239502549918888</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.743694342219294</v>
+        <v>-3.774840930679761</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.739493168355622</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.7356428882269</v>
+        <v>-36.68024935490356</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4621555764738381</v>
+        <v>0.3961441855458553</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.96119676932889</v>
+        <v>-3.985338975769032</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.450692250491579</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.81873300876825</v>
+        <v>-38.77208513374318</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07373313576550913</v>
+        <v>0.01822177171659061</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.947292743710976</v>
+        <v>-3.988612051479464</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.181364768460472</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.02668442151114</v>
+        <v>-41.00352413778413</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1294463120352377</v>
+        <v>-0.1952220415120695</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.146701608293307</v>
+        <v>-4.189238500226074</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.889969682634783</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.40024037289903</v>
+        <v>-43.38574719365324</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.05072229504793887</v>
+        <v>-0.1157124863542671</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.47675856293322</v>
+        <v>-4.517501809376672</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.609628656701416</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79584376227238</v>
+        <v>-45.79651146971731</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3343801284167759</v>
+        <v>-0.3755423285511626</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.652666743914652</v>
+        <v>-4.705166878309973</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.279224359676775</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19396087379135</v>
+        <v>-48.19546648861814</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2595576176763114</v>
+        <v>-0.3180671190759852</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.920207952485324</v>
+        <v>-4.988130819628199</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.990714921314515</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40096964072963</v>
+        <v>-50.41698152710507</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4089407931004058</v>
+        <v>-0.4631036499566266</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.283283694892071</v>
+        <v>-5.34365230329527</v>
       </c>
     </row>
   </sheetData>
